--- a/1step/收集表.xlsx
+++ b/1step/收集表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Bioinformatics_Practice_AD_and_ferroptosis\R\geo_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\Bioinformatics_Practice_AD_and_ferroptosis\1step\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{281B3B2A-CC8D-4FF0-A9D1-A9A2E459D151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AEDA73-4580-425E-A64A-9419252B6310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5630" yWindow="2740" windowWidth="19190" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="73">
   <si>
     <t>uid</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,10 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GSE84422</t>
   </si>
   <si>
@@ -190,9 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSE84423</t>
-  </si>
-  <si>
     <t>GPL97</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -205,22 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GSE45775</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GPL8490</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15/5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gender</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GSE67333</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -330,6 +307,14 @@
   </si>
   <si>
     <t>10/13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSE153873</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -353,7 +338,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,6 +348,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,7 +370,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,6 +380,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +672,7 @@
   <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -702,20 +700,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
         <v>200173954</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -736,88 +734,88 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>200280268</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5">
+    <row r="5" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>200260461</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>200236562</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7">
+    <row r="7" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>200193438</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
         <v>200173955</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -852,177 +850,180 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>200159699</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>200153873</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>200084422</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="C13" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>200084422</v>
       </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="E14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
+        <v>200067333</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>200084422</v>
-      </c>
-      <c r="B13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>200045775</v>
-      </c>
-      <c r="B14" t="s">
+    <row r="16" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>200048350</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E16" s="5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>200067333</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="17" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>200029378</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C15" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="C17" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>200048350</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="E17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="1" t="s">
+    </row>
+    <row r="18" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
+        <v>200036980</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="C18" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>200029378</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="D18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>200013214</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>200036980</v>
-      </c>
-      <c r="B18" t="s">
+    </row>
+    <row r="20" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>200028146</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C20" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>200013214</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="E20" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>200028146</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E20" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1030,13 +1031,13 @@
         <v>200009770</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,33 +1045,33 @@
         <v>200006677</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>200005281</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>200005281</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" t="s">
-        <v>75</v>
+      <c r="E23" s="5" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
